--- a/reports/eshettours/inputData.xlsx
+++ b/reports/eshettours/inputData.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2430" windowWidth="14910" windowHeight="6855"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="21030" windowHeight="11100"/>
   </bookViews>
   <sheets>
     <sheet name="eshet" sheetId="1" r:id="rId1"/>
@@ -409,14 +409,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -424,7 +424,7 @@
       <b/>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="Times New Roman"/>
+      <name val="Cambria"/>
       <family val="2"/>
       <scheme val="major"/>
     </font>
@@ -432,7 +432,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -440,7 +440,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -448,35 +448,35 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -484,7 +484,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -492,14 +492,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -507,14 +507,14 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -522,7 +522,7 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -530,14 +530,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -889,48 +889,48 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - הדגשה1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - הדגשה2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - הדגשה3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - הדגשה4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - הדגשה5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - הדגשה6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - הדגשה1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - הדגשה2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - הדגשה3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - הדגשה4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - הדגשה5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - הדגשה6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - הדגשה1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - הדגשה2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - הדגשה3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - הדגשה4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - הדגשה5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - הדגשה6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="הדגשה1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="הדגשה2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="הדגשה3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="הדגשה4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="הדגשה5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="הדגשה6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="הערה" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="חישוב" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="טוב" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="טקסט אזהרה" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="טקסט הסברי" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="כותרת" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="כותרת 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="כותרת 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="כותרת 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="כותרת 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="ניטראלי" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="סה&quot;כ" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="פלט" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="קלט" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="רע" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="תא מסומן" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="תא מקושר" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -943,7 +943,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ערכת נושא Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1231,13 +1231,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G1075"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1257,7 +1258,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1274,7 +1275,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -1291,7 +1292,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -1308,7 +1309,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -1325,7 +1326,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -1342,7 +1343,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -1359,7 +1360,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -1376,7 +1377,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1393,7 +1394,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -1410,7 +1411,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1427,7 +1428,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -1444,7 +1445,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -1461,7 +1462,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>9</v>
       </c>
@@ -1478,7 +1479,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>9</v>
       </c>
@@ -1495,7 +1496,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>9</v>
       </c>
@@ -1512,7 +1513,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>9</v>
       </c>
@@ -1529,7 +1530,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>9</v>
       </c>
@@ -1546,7 +1547,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>9</v>
       </c>
@@ -1563,7 +1564,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>9</v>
       </c>
@@ -1580,7 +1581,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>9</v>
       </c>
@@ -1597,7 +1598,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>30</v>
       </c>
@@ -1614,7 +1615,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>31</v>
       </c>
@@ -1631,7 +1632,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>31</v>
       </c>
@@ -1648,7 +1649,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -1665,7 +1666,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>31</v>
       </c>
@@ -1682,7 +1683,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>31</v>
       </c>
@@ -1699,7 +1700,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>31</v>
       </c>
@@ -1716,7 +1717,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>31</v>
       </c>
@@ -1733,7 +1734,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>31</v>
       </c>
@@ -1750,7 +1751,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>31</v>
       </c>
@@ -1767,7 +1768,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -1784,7 +1785,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -1801,7 +1802,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>31</v>
       </c>
@@ -1818,7 +1819,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>31</v>
       </c>
@@ -1835,7 +1836,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>31</v>
       </c>
@@ -1852,7 +1853,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>31</v>
       </c>
@@ -1869,7 +1870,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>31</v>
       </c>
@@ -1886,7 +1887,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>31</v>
       </c>
@@ -1903,7 +1904,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>31</v>
       </c>
@@ -1920,7 +1921,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>31</v>
       </c>
@@ -1937,7 +1938,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>33</v>
       </c>
@@ -1954,7 +1955,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>34</v>
       </c>
@@ -1971,7 +1972,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>34</v>
       </c>
@@ -1988,7 +1989,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>34</v>
       </c>
@@ -2005,7 +2006,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>34</v>
       </c>
@@ -2022,7 +2023,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>34</v>
       </c>
@@ -2039,7 +2040,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>34</v>
       </c>
@@ -2056,7 +2057,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>34</v>
       </c>
@@ -2073,7 +2074,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>34</v>
       </c>
@@ -2090,7 +2091,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>34</v>
       </c>
@@ -2107,7 +2108,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>34</v>
       </c>
@@ -2124,7 +2125,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>34</v>
       </c>
@@ -2141,7 +2142,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>34</v>
       </c>
@@ -2158,7 +2159,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>34</v>
       </c>
@@ -2175,7 +2176,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>34</v>
       </c>
@@ -2192,7 +2193,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>34</v>
       </c>
@@ -2209,7 +2210,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>34</v>
       </c>
@@ -2226,7 +2227,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>34</v>
       </c>
@@ -2243,7 +2244,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>35</v>
       </c>
@@ -2260,7 +2261,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>36</v>
       </c>
@@ -2277,7 +2278,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>36</v>
       </c>
@@ -2294,7 +2295,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>36</v>
       </c>
@@ -2311,7 +2312,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>36</v>
       </c>
@@ -2328,7 +2329,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>36</v>
       </c>
@@ -2345,7 +2346,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>36</v>
       </c>
@@ -2362,7 +2363,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>36</v>
       </c>
@@ -2379,7 +2380,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>36</v>
       </c>
@@ -2396,7 +2397,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>36</v>
       </c>
@@ -2413,7 +2414,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>36</v>
       </c>
@@ -2430,7 +2431,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>36</v>
       </c>
@@ -2447,7 +2448,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>36</v>
       </c>
@@ -2464,7 +2465,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>36</v>
       </c>
@@ -2481,7 +2482,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>36</v>
       </c>
@@ -2498,7 +2499,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>36</v>
       </c>
@@ -2515,7 +2516,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>37</v>
       </c>
@@ -2532,7 +2533,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>38</v>
       </c>
@@ -2549,7 +2550,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>38</v>
       </c>
@@ -2566,7 +2567,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>38</v>
       </c>
@@ -2583,7 +2584,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>38</v>
       </c>
@@ -2600,7 +2601,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>38</v>
       </c>
@@ -2617,7 +2618,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>38</v>
       </c>
@@ -2634,7 +2635,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>38</v>
       </c>
@@ -2651,7 +2652,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>38</v>
       </c>
@@ -2668,7 +2669,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>38</v>
       </c>
@@ -2685,7 +2686,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>38</v>
       </c>
@@ -2702,7 +2703,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>38</v>
       </c>
@@ -2719,7 +2720,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>38</v>
       </c>
@@ -2736,7 +2737,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>38</v>
       </c>
@@ -2753,7 +2754,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>38</v>
       </c>
@@ -2770,7 +2771,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>38</v>
       </c>
@@ -2787,7 +2788,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>38</v>
       </c>
@@ -2804,7 +2805,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>38</v>
       </c>
@@ -2821,7 +2822,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>40</v>
       </c>
@@ -2838,7 +2839,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>41</v>
       </c>
@@ -2855,7 +2856,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>41</v>
       </c>
@@ -2872,7 +2873,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>41</v>
       </c>
@@ -2889,7 +2890,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>41</v>
       </c>
@@ -2906,7 +2907,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>41</v>
       </c>
@@ -2923,7 +2924,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>41</v>
       </c>
@@ -2940,7 +2941,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>41</v>
       </c>
@@ -2957,7 +2958,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>41</v>
       </c>
@@ -2974,7 +2975,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>41</v>
       </c>
@@ -2991,7 +2992,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>41</v>
       </c>
@@ -3008,7 +3009,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>41</v>
       </c>
@@ -3025,7 +3026,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>41</v>
       </c>
@@ -3042,7 +3043,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>41</v>
       </c>
@@ -3059,7 +3060,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>41</v>
       </c>
@@ -3076,7 +3077,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>41</v>
       </c>
@@ -3093,7 +3094,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>41</v>
       </c>
@@ -3110,7 +3111,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>41</v>
       </c>
@@ -3127,7 +3128,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>41</v>
       </c>
@@ -3144,7 +3145,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>41</v>
       </c>
@@ -3161,7 +3162,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>42</v>
       </c>
@@ -3178,7 +3179,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>43</v>
       </c>
@@ -3195,7 +3196,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>43</v>
       </c>
@@ -3212,7 +3213,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>43</v>
       </c>
@@ -3229,7 +3230,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>43</v>
       </c>
@@ -3246,7 +3247,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>43</v>
       </c>
@@ -3263,7 +3264,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>43</v>
       </c>
@@ -3280,7 +3281,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>43</v>
       </c>
@@ -3297,7 +3298,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>43</v>
       </c>
@@ -3314,7 +3315,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>43</v>
       </c>
@@ -3331,7 +3332,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>43</v>
       </c>
@@ -3348,7 +3349,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>43</v>
       </c>
@@ -3365,7 +3366,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>43</v>
       </c>
@@ -3382,7 +3383,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>43</v>
       </c>
@@ -3399,7 +3400,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>43</v>
       </c>
@@ -3416,7 +3417,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>43</v>
       </c>
@@ -3433,7 +3434,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>43</v>
       </c>
@@ -3450,7 +3451,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>43</v>
       </c>
@@ -3467,7 +3468,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>44</v>
       </c>
@@ -3484,7 +3485,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>45</v>
       </c>
@@ -3501,7 +3502,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>45</v>
       </c>
@@ -3518,7 +3519,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>45</v>
       </c>
@@ -3535,7 +3536,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>45</v>
       </c>
@@ -3552,7 +3553,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>45</v>
       </c>
@@ -3569,7 +3570,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>45</v>
       </c>
@@ -3586,7 +3587,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>45</v>
       </c>
@@ -3603,7 +3604,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>45</v>
       </c>
@@ -3620,7 +3621,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>45</v>
       </c>
@@ -3637,7 +3638,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>45</v>
       </c>
@@ -3654,7 +3655,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>45</v>
       </c>
@@ -3671,7 +3672,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>45</v>
       </c>
@@ -3688,7 +3689,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>45</v>
       </c>
@@ -3705,7 +3706,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>45</v>
       </c>
@@ -3722,7 +3723,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>45</v>
       </c>
@@ -3739,7 +3740,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>45</v>
       </c>
@@ -3756,7 +3757,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>45</v>
       </c>
@@ -3773,7 +3774,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>45</v>
       </c>
@@ -3790,7 +3791,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>45</v>
       </c>
@@ -3807,7 +3808,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>46</v>
       </c>
@@ -3824,7 +3825,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>47</v>
       </c>
@@ -3841,7 +3842,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>47</v>
       </c>
@@ -3858,7 +3859,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>47</v>
       </c>
@@ -3875,7 +3876,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>47</v>
       </c>
@@ -3892,7 +3893,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>47</v>
       </c>
@@ -3909,7 +3910,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>47</v>
       </c>
@@ -3926,7 +3927,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>47</v>
       </c>
@@ -3943,7 +3944,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>47</v>
       </c>
@@ -3960,7 +3961,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>47</v>
       </c>
@@ -3977,7 +3978,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>47</v>
       </c>
@@ -3994,7 +3995,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>47</v>
       </c>
@@ -4011,7 +4012,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>47</v>
       </c>
@@ -4028,7 +4029,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>47</v>
       </c>
@@ -4045,7 +4046,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>47</v>
       </c>
@@ -4062,7 +4063,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>47</v>
       </c>
@@ -4079,7 +4080,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>47</v>
       </c>
@@ -4096,7 +4097,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>47</v>
       </c>
@@ -4113,7 +4114,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>47</v>
       </c>
@@ -4130,7 +4131,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>47</v>
       </c>
@@ -4147,7 +4148,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>47</v>
       </c>
@@ -4164,7 +4165,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>48</v>
       </c>
@@ -4181,7 +4182,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>49</v>
       </c>
@@ -4198,7 +4199,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>49</v>
       </c>
@@ -4215,7 +4216,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>49</v>
       </c>
@@ -4232,7 +4233,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>49</v>
       </c>
@@ -4249,7 +4250,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>49</v>
       </c>
@@ -4266,7 +4267,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>49</v>
       </c>
@@ -4283,7 +4284,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>49</v>
       </c>
@@ -4300,7 +4301,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>49</v>
       </c>
@@ -4317,7 +4318,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>49</v>
       </c>
@@ -4334,7 +4335,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>49</v>
       </c>
@@ -4351,7 +4352,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>49</v>
       </c>
@@ -4368,7 +4369,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>49</v>
       </c>
@@ -4385,7 +4386,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>49</v>
       </c>
@@ -4402,7 +4403,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>49</v>
       </c>
@@ -4419,7 +4420,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>49</v>
       </c>
@@ -4436,7 +4437,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>49</v>
       </c>
@@ -4453,7 +4454,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>50</v>
       </c>
@@ -4470,7 +4471,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>51</v>
       </c>
@@ -4487,7 +4488,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>51</v>
       </c>
@@ -4504,7 +4505,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>51</v>
       </c>
@@ -4521,7 +4522,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>51</v>
       </c>
@@ -4538,7 +4539,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>51</v>
       </c>
@@ -4555,7 +4556,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>51</v>
       </c>
@@ -4572,7 +4573,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>51</v>
       </c>
@@ -4589,7 +4590,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>51</v>
       </c>
@@ -4606,7 +4607,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>51</v>
       </c>
@@ -4623,7 +4624,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>51</v>
       </c>
@@ -4640,7 +4641,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>51</v>
       </c>
@@ -4657,7 +4658,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>51</v>
       </c>
@@ -4674,7 +4675,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>51</v>
       </c>
@@ -4691,7 +4692,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>51</v>
       </c>
@@ -4708,7 +4709,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>51</v>
       </c>
@@ -4725,7 +4726,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>51</v>
       </c>
@@ -4742,7 +4743,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>51</v>
       </c>
@@ -4759,7 +4760,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>52</v>
       </c>
@@ -4776,7 +4777,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>53</v>
       </c>
@@ -4793,7 +4794,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>53</v>
       </c>
@@ -4810,7 +4811,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>53</v>
       </c>
@@ -4827,7 +4828,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>53</v>
       </c>
@@ -4844,7 +4845,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>53</v>
       </c>
@@ -4861,7 +4862,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>53</v>
       </c>
@@ -4878,7 +4879,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>53</v>
       </c>
@@ -4895,7 +4896,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>53</v>
       </c>
@@ -4912,7 +4913,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>53</v>
       </c>
@@ -4929,7 +4930,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>53</v>
       </c>
@@ -4946,7 +4947,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>53</v>
       </c>
@@ -4963,7 +4964,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>53</v>
       </c>
@@ -4980,7 +4981,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>53</v>
       </c>
@@ -4997,7 +4998,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>53</v>
       </c>
@@ -5014,7 +5015,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>53</v>
       </c>
@@ -5031,7 +5032,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>53</v>
       </c>
@@ -5048,7 +5049,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>53</v>
       </c>
@@ -5065,7 +5066,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>53</v>
       </c>
@@ -5082,7 +5083,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>53</v>
       </c>
@@ -5099,7 +5100,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>53</v>
       </c>
@@ -5116,7 +5117,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>54</v>
       </c>
@@ -5133,7 +5134,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>55</v>
       </c>
@@ -5150,7 +5151,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>55</v>
       </c>
@@ -5167,7 +5168,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>55</v>
       </c>
@@ -5184,7 +5185,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>55</v>
       </c>
@@ -5201,7 +5202,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>55</v>
       </c>
@@ -5218,7 +5219,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>55</v>
       </c>
@@ -5235,7 +5236,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>55</v>
       </c>
@@ -5252,7 +5253,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>55</v>
       </c>
@@ -5269,7 +5270,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>55</v>
       </c>
@@ -5286,7 +5287,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>55</v>
       </c>
@@ -5303,7 +5304,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>55</v>
       </c>
@@ -5320,7 +5321,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>55</v>
       </c>
@@ -5337,7 +5338,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>55</v>
       </c>
@@ -5354,7 +5355,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>55</v>
       </c>
@@ -5371,7 +5372,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>55</v>
       </c>
@@ -5388,7 +5389,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>55</v>
       </c>
@@ -5405,7 +5406,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>55</v>
       </c>
@@ -5422,7 +5423,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>55</v>
       </c>
@@ -5439,7 +5440,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>55</v>
       </c>
@@ -5456,7 +5457,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>56</v>
       </c>
@@ -5473,7 +5474,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>57</v>
       </c>
@@ -5490,7 +5491,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>57</v>
       </c>
@@ -5507,7 +5508,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>57</v>
       </c>
@@ -5524,7 +5525,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>57</v>
       </c>
@@ -5541,7 +5542,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>57</v>
       </c>
@@ -5558,7 +5559,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>57</v>
       </c>
@@ -5575,7 +5576,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>57</v>
       </c>
@@ -5592,7 +5593,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>57</v>
       </c>
@@ -5609,7 +5610,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>57</v>
       </c>
@@ -5626,7 +5627,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>57</v>
       </c>
@@ -5643,7 +5644,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>57</v>
       </c>
@@ -5660,7 +5661,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>57</v>
       </c>
@@ -5677,7 +5678,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>57</v>
       </c>
@@ -5694,7 +5695,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>57</v>
       </c>
@@ -5711,7 +5712,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>57</v>
       </c>
@@ -5728,7 +5729,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>57</v>
       </c>
@@ -5745,7 +5746,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>57</v>
       </c>
@@ -5762,7 +5763,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>58</v>
       </c>
@@ -5779,7 +5780,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>59</v>
       </c>
@@ -5796,7 +5797,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>59</v>
       </c>
@@ -5813,7 +5814,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>59</v>
       </c>
@@ -5830,7 +5831,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>59</v>
       </c>
@@ -5847,7 +5848,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>59</v>
       </c>
@@ -5864,7 +5865,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>59</v>
       </c>
@@ -5881,7 +5882,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>59</v>
       </c>
@@ -5898,7 +5899,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>59</v>
       </c>
@@ -5915,7 +5916,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>59</v>
       </c>
@@ -5932,7 +5933,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>59</v>
       </c>
@@ -5949,7 +5950,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>59</v>
       </c>
@@ -5966,7 +5967,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>59</v>
       </c>
@@ -5983,7 +5984,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>59</v>
       </c>
@@ -6000,7 +6001,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>59</v>
       </c>
@@ -6017,7 +6018,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>59</v>
       </c>
@@ -6034,7 +6035,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>59</v>
       </c>
@@ -6051,7 +6052,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>59</v>
       </c>
@@ -6068,7 +6069,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>59</v>
       </c>
@@ -6085,7 +6086,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>59</v>
       </c>
@@ -6102,7 +6103,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>60</v>
       </c>
@@ -6119,7 +6120,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>61</v>
       </c>
@@ -6136,7 +6137,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>61</v>
       </c>
@@ -6153,7 +6154,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>61</v>
       </c>
@@ -6170,7 +6171,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>61</v>
       </c>
@@ -6187,7 +6188,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>61</v>
       </c>
@@ -6204,7 +6205,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>61</v>
       </c>
@@ -6221,7 +6222,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>61</v>
       </c>
@@ -6238,7 +6239,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>61</v>
       </c>
@@ -6255,7 +6256,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>61</v>
       </c>
@@ -6272,7 +6273,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>61</v>
       </c>
@@ -6289,7 +6290,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>61</v>
       </c>
@@ -6306,7 +6307,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>61</v>
       </c>
@@ -6323,7 +6324,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>61</v>
       </c>
@@ -6340,7 +6341,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>61</v>
       </c>
@@ -6357,7 +6358,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>61</v>
       </c>
@@ -6374,7 +6375,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>61</v>
       </c>
@@ -6391,7 +6392,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>61</v>
       </c>
@@ -6408,7 +6409,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>61</v>
       </c>
@@ -6425,7 +6426,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>61</v>
       </c>
@@ -6442,7 +6443,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>62</v>
       </c>
@@ -6459,7 +6460,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>63</v>
       </c>
@@ -6476,7 +6477,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>63</v>
       </c>
@@ -6493,7 +6494,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>63</v>
       </c>
@@ -6510,7 +6511,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>63</v>
       </c>
@@ -6527,7 +6528,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>63</v>
       </c>
@@ -6544,7 +6545,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>63</v>
       </c>
@@ -6561,7 +6562,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>63</v>
       </c>
@@ -6578,7 +6579,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>63</v>
       </c>
@@ -6595,7 +6596,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>63</v>
       </c>
@@ -6612,7 +6613,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>63</v>
       </c>
@@ -6629,7 +6630,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>63</v>
       </c>
@@ -6646,7 +6647,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>63</v>
       </c>
@@ -6663,7 +6664,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>63</v>
       </c>
@@ -6680,7 +6681,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>63</v>
       </c>
@@ -6697,7 +6698,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>63</v>
       </c>
@@ -6714,7 +6715,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="323" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>63</v>
       </c>
@@ -6731,7 +6732,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="324" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>63</v>
       </c>
@@ -6748,7 +6749,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>63</v>
       </c>
@@ -6765,7 +6766,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>63</v>
       </c>
@@ -6782,7 +6783,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>63</v>
       </c>
@@ -6799,7 +6800,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>64</v>
       </c>
@@ -6816,7 +6817,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>65</v>
       </c>
@@ -6833,7 +6834,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>65</v>
       </c>
@@ -6850,7 +6851,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="331" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>65</v>
       </c>
@@ -6867,7 +6868,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="332" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>65</v>
       </c>
@@ -6884,7 +6885,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="333" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>65</v>
       </c>
@@ -6901,7 +6902,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="334" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>65</v>
       </c>
@@ -6918,7 +6919,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="335" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>65</v>
       </c>
@@ -6935,7 +6936,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="336" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>65</v>
       </c>
@@ -6952,7 +6953,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="337" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>65</v>
       </c>
@@ -6969,7 +6970,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="338" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>65</v>
       </c>
@@ -6986,7 +6987,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="339" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>65</v>
       </c>
@@ -7003,7 +7004,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="340" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>65</v>
       </c>
@@ -7020,7 +7021,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="341" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>65</v>
       </c>
@@ -7037,7 +7038,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="342" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>65</v>
       </c>
@@ -7054,7 +7055,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="343" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>65</v>
       </c>
@@ -7071,7 +7072,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="344" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>65</v>
       </c>
@@ -7088,7 +7089,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="345" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>66</v>
       </c>
@@ -7105,7 +7106,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="346" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>67</v>
       </c>
@@ -7122,7 +7123,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="347" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>67</v>
       </c>
@@ -7139,7 +7140,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="348" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>67</v>
       </c>
@@ -7156,7 +7157,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="349" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>67</v>
       </c>
@@ -7173,7 +7174,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="350" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>67</v>
       </c>
@@ -7190,7 +7191,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="351" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>67</v>
       </c>
@@ -7207,7 +7208,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="352" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>67</v>
       </c>
@@ -7224,7 +7225,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="353" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>67</v>
       </c>
@@ -7241,7 +7242,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="354" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>67</v>
       </c>
@@ -7258,7 +7259,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="355" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>67</v>
       </c>
@@ -7275,7 +7276,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="356" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>67</v>
       </c>
@@ -7292,7 +7293,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="357" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>67</v>
       </c>
@@ -7309,7 +7310,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="358" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>67</v>
       </c>
@@ -7326,7 +7327,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="359" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>67</v>
       </c>
@@ -7343,7 +7344,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="360" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>67</v>
       </c>
@@ -7360,7 +7361,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="361" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>67</v>
       </c>
@@ -7377,7 +7378,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="362" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>67</v>
       </c>
@@ -7394,7 +7395,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="363" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>67</v>
       </c>
@@ -7411,7 +7412,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="364" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>68</v>
       </c>
@@ -7428,7 +7429,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="365" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A365" s="2">
         <v>42741</v>
       </c>
@@ -7445,7 +7446,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="366" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A366" s="2">
         <v>42741</v>
       </c>
@@ -7462,7 +7463,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="367" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A367" s="2">
         <v>42741</v>
       </c>
@@ -7479,7 +7480,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="368" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A368" s="2">
         <v>42741</v>
       </c>
@@ -7496,7 +7497,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="369" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A369" s="2">
         <v>42741</v>
       </c>
@@ -7513,7 +7514,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="370" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A370" s="2">
         <v>42741</v>
       </c>
@@ -7530,7 +7531,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="371" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A371" s="2">
         <v>42741</v>
       </c>
@@ -7547,7 +7548,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="372" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A372" s="2">
         <v>42741</v>
       </c>
@@ -7564,7 +7565,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="373" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A373" s="2">
         <v>42741</v>
       </c>
@@ -7581,7 +7582,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="374" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A374" s="2">
         <v>42741</v>
       </c>
@@ -7598,7 +7599,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="375" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A375" s="2">
         <v>42741</v>
       </c>
@@ -7615,7 +7616,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="376" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A376" s="2">
         <v>42741</v>
       </c>
@@ -7632,7 +7633,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="377" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A377" s="2">
         <v>42741</v>
       </c>
@@ -7649,7 +7650,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="378" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A378" s="2">
         <v>42741</v>
       </c>
@@ -7666,7 +7667,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="379" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A379" s="2">
         <v>42741</v>
       </c>
@@ -7683,7 +7684,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="380" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A380" s="2">
         <v>42741</v>
       </c>
@@ -7700,7 +7701,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="381" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A381" s="2">
         <v>42741</v>
       </c>
@@ -7717,7 +7718,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="382" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A382" s="2">
         <v>42741</v>
       </c>
@@ -7734,7 +7735,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="383" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A383" s="2">
         <v>42741</v>
       </c>
@@ -7751,7 +7752,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="384" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>69</v>
       </c>
@@ -7768,7 +7769,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="385" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A385" s="2">
         <v>42772</v>
       </c>
@@ -7785,7 +7786,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="386" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A386" s="2">
         <v>42772</v>
       </c>
@@ -7802,7 +7803,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="387" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A387" s="2">
         <v>42772</v>
       </c>
@@ -7819,7 +7820,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="388" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A388" s="2">
         <v>42772</v>
       </c>
@@ -7836,7 +7837,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="389" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A389" s="2">
         <v>42772</v>
       </c>
@@ -7853,7 +7854,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="390" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A390" s="2">
         <v>42772</v>
       </c>
@@ -7870,7 +7871,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="391" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A391" s="2">
         <v>42772</v>
       </c>
@@ -7887,7 +7888,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="392" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A392" s="2">
         <v>42772</v>
       </c>
@@ -7904,7 +7905,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="393" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A393" s="2">
         <v>42772</v>
       </c>
@@ -7921,7 +7922,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="394" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A394" s="2">
         <v>42772</v>
       </c>
@@ -7938,7 +7939,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="395" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A395" s="2">
         <v>42772</v>
       </c>
@@ -7955,7 +7956,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="396" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A396" s="2">
         <v>42772</v>
       </c>
@@ -7972,7 +7973,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="397" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A397" s="2">
         <v>42772</v>
       </c>
@@ -7989,7 +7990,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="398" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A398" s="2">
         <v>42772</v>
       </c>
@@ -8006,7 +8007,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="399" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>70</v>
       </c>
@@ -8023,7 +8024,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="400" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A400" s="2">
         <v>42800</v>
       </c>
@@ -8040,7 +8041,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="401" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A401" s="2">
         <v>42800</v>
       </c>
@@ -8057,7 +8058,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="402" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A402" s="2">
         <v>42800</v>
       </c>
@@ -8074,7 +8075,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="403" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A403" s="2">
         <v>42800</v>
       </c>
@@ -8091,7 +8092,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="404" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A404" s="2">
         <v>42800</v>
       </c>
@@ -8108,7 +8109,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="405" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A405" s="2">
         <v>42800</v>
       </c>
@@ -8125,7 +8126,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="406" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A406" s="2">
         <v>42800</v>
       </c>
@@ -8142,7 +8143,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="407" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A407" s="2">
         <v>42800</v>
       </c>
@@ -8159,7 +8160,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="408" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A408" s="2">
         <v>42800</v>
       </c>
@@ -8176,7 +8177,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="409" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A409" s="2">
         <v>42800</v>
       </c>
@@ -8193,7 +8194,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="410" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A410" s="2">
         <v>42800</v>
       </c>
@@ -8210,7 +8211,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="411" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A411" s="2">
         <v>42800</v>
       </c>
@@ -8227,7 +8228,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="412" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A412" s="2">
         <v>42800</v>
       </c>
@@ -8244,7 +8245,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="413" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A413" s="2">
         <v>42800</v>
       </c>
@@ -8261,7 +8262,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="414" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A414" s="2">
         <v>42800</v>
       </c>
@@ -8278,7 +8279,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="415" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A415" s="2">
         <v>42800</v>
       </c>
@@ -8295,7 +8296,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="416" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A416" s="2">
         <v>42800</v>
       </c>
@@ -8312,7 +8313,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="417" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A417" s="2">
         <v>42800</v>
       </c>
@@ -8329,7 +8330,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="418" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>71</v>
       </c>
@@ -8346,7 +8347,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="419" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A419" s="2">
         <v>42831</v>
       </c>
@@ -8363,7 +8364,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="420" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A420" s="2">
         <v>42831</v>
       </c>
@@ -8380,7 +8381,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="421" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A421" s="2">
         <v>42831</v>
       </c>
@@ -8397,7 +8398,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="422" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A422" s="2">
         <v>42831</v>
       </c>
@@ -8414,7 +8415,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="423" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A423" s="2">
         <v>42831</v>
       </c>
@@ -8431,7 +8432,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="424" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A424" s="2">
         <v>42831</v>
       </c>
@@ -8448,7 +8449,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="425" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A425" s="2">
         <v>42831</v>
       </c>
@@ -8465,7 +8466,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="426" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A426" s="2">
         <v>42831</v>
       </c>
@@ -8482,7 +8483,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="427" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A427" s="2">
         <v>42831</v>
       </c>
@@ -8499,7 +8500,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="428" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A428" s="2">
         <v>42831</v>
       </c>
@@ -8516,7 +8517,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="429" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A429" s="2">
         <v>42831</v>
       </c>
@@ -8533,7 +8534,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="430" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A430" s="2">
         <v>42831</v>
       </c>
@@ -8550,7 +8551,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="431" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A431" s="2">
         <v>42831</v>
       </c>
@@ -8567,7 +8568,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="432" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A432" s="2">
         <v>42831</v>
       </c>
@@ -8584,7 +8585,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="433" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A433" s="2">
         <v>42831</v>
       </c>
@@ -8601,7 +8602,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="434" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A434" s="2">
         <v>42831</v>
       </c>
@@ -8618,7 +8619,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="435" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A435" s="2">
         <v>42831</v>
       </c>
@@ -8635,7 +8636,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="436" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A436" s="2">
         <v>42831</v>
       </c>
@@ -8652,7 +8653,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="437" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A437" s="2">
         <v>42831</v>
       </c>
@@ -8669,7 +8670,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="438" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>72</v>
       </c>
@@ -8686,7 +8687,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="439" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A439" s="2">
         <v>42861</v>
       </c>
@@ -8703,7 +8704,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="440" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A440" s="2">
         <v>42861</v>
       </c>
@@ -8720,7 +8721,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="441" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A441" s="2">
         <v>42861</v>
       </c>
@@ -8737,7 +8738,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="442" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A442" s="2">
         <v>42861</v>
       </c>
@@ -8754,7 +8755,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="443" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A443" s="2">
         <v>42861</v>
       </c>
@@ -8771,7 +8772,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="444" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A444" s="2">
         <v>42861</v>
       </c>
@@ -8788,7 +8789,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="445" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A445" s="2">
         <v>42861</v>
       </c>
@@ -8805,7 +8806,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="446" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A446" s="2">
         <v>42861</v>
       </c>
@@ -8822,7 +8823,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="447" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A447" s="2">
         <v>42861</v>
       </c>
@@ -8839,7 +8840,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="448" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A448" s="2">
         <v>42861</v>
       </c>
@@ -8856,7 +8857,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="449" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A449" s="2">
         <v>42861</v>
       </c>
@@ -8873,7 +8874,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="450" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A450" s="2">
         <v>42861</v>
       </c>
@@ -8890,7 +8891,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="451" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A451" s="2">
         <v>42861</v>
       </c>
@@ -8907,7 +8908,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="452" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A452" s="2">
         <v>42861</v>
       </c>
@@ -8924,7 +8925,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="453" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A453" s="2">
         <v>42861</v>
       </c>
@@ -8941,7 +8942,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="454" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A454" s="2">
         <v>42861</v>
       </c>
@@ -8958,7 +8959,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="455" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A455" s="2">
         <v>42861</v>
       </c>
@@ -8975,7 +8976,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="456" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A456" s="2">
         <v>42861</v>
       </c>
@@ -8992,7 +8993,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="457" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
         <v>73</v>
       </c>
@@ -9009,7 +9010,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="458" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A458" s="2">
         <v>42892</v>
       </c>
@@ -9026,7 +9027,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="459" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A459" s="2">
         <v>42892</v>
       </c>
@@ -9043,7 +9044,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="460" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A460" s="2">
         <v>42892</v>
       </c>
@@ -9060,7 +9061,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="461" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A461" s="2">
         <v>42892</v>
       </c>
@@ -9077,7 +9078,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="462" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A462" s="2">
         <v>42892</v>
       </c>
@@ -9094,7 +9095,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="463" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A463" s="2">
         <v>42892</v>
       </c>
@@ -9111,7 +9112,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="464" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A464" s="2">
         <v>42892</v>
       </c>
@@ -9128,7 +9129,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="465" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A465" s="2">
         <v>42892</v>
       </c>
@@ -9145,7 +9146,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="466" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A466" s="2">
         <v>42892</v>
       </c>
@@ -9162,7 +9163,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="467" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A467" s="2">
         <v>42892</v>
       </c>
@@ -9179,7 +9180,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="468" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A468" s="2">
         <v>42892</v>
       </c>
@@ -9196,7 +9197,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="469" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A469" s="2">
         <v>42892</v>
       </c>
@@ -9213,7 +9214,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="470" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A470" s="2">
         <v>42892</v>
       </c>
@@ -9230,7 +9231,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="471" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A471" s="2">
         <v>42892</v>
       </c>
@@ -9247,7 +9248,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="472" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A472" s="2">
         <v>42892</v>
       </c>
@@ -9264,7 +9265,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="473" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A473" s="2">
         <v>42892</v>
       </c>
@@ -9281,7 +9282,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="474" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A474" s="2">
         <v>42892</v>
       </c>
@@ -9298,7 +9299,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="475" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
         <v>74</v>
       </c>
@@ -9315,7 +9316,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="476" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A476" s="2">
         <v>42922</v>
       </c>
@@ -9332,7 +9333,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="477" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A477" s="2">
         <v>42922</v>
       </c>
@@ -9349,7 +9350,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="478" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A478" s="2">
         <v>42922</v>
       </c>
@@ -9366,7 +9367,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="479" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A479" s="2">
         <v>42922</v>
       </c>
@@ -9383,7 +9384,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="480" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A480" s="2">
         <v>42922</v>
       </c>
@@ -9400,7 +9401,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="481" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A481" s="2">
         <v>42922</v>
       </c>
@@ -9417,7 +9418,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="482" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A482" s="2">
         <v>42922</v>
       </c>
@@ -9434,7 +9435,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="483" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A483" s="2">
         <v>42922</v>
       </c>
@@ -9451,7 +9452,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="484" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A484" s="2">
         <v>42922</v>
       </c>
@@ -9468,7 +9469,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="485" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A485" s="2">
         <v>42922</v>
       </c>
@@ -9485,7 +9486,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="486" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A486" s="2">
         <v>42922</v>
       </c>
@@ -9502,7 +9503,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="487" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A487" s="2">
         <v>42922</v>
       </c>
@@ -9519,7 +9520,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="488" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A488" s="2">
         <v>42922</v>
       </c>
@@ -9536,7 +9537,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="489" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A489" s="2">
         <v>42922</v>
       </c>
@@ -9553,7 +9554,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="490" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A490" s="2">
         <v>42922</v>
       </c>
@@ -9570,7 +9571,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="491" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A491" s="2">
         <v>42922</v>
       </c>
@@ -9587,7 +9588,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="492" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
         <v>75</v>
       </c>
@@ -9604,7 +9605,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="493" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A493" s="2">
         <v>42953</v>
       </c>
@@ -9621,7 +9622,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="494" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A494" s="2">
         <v>42953</v>
       </c>
@@ -9638,7 +9639,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="495" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A495" s="2">
         <v>42953</v>
       </c>
@@ -9655,7 +9656,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="496" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A496" s="2">
         <v>42953</v>
       </c>
@@ -9672,7 +9673,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="497" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A497" s="2">
         <v>42953</v>
       </c>
@@ -9689,7 +9690,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="498" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A498" s="2">
         <v>42953</v>
       </c>
@@ -9706,7 +9707,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="499" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A499" s="2">
         <v>42953</v>
       </c>
@@ -9723,7 +9724,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="500" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A500" s="2">
         <v>42953</v>
       </c>
@@ -9740,7 +9741,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="501" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A501" s="2">
         <v>42953</v>
       </c>
@@ -9757,7 +9758,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="502" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A502" s="2">
         <v>42953</v>
       </c>
@@ -9774,7 +9775,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="503" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A503" s="2">
         <v>42953</v>
       </c>
@@ -9791,7 +9792,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="504" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A504" s="2">
         <v>42953</v>
       </c>
@@ -9808,7 +9809,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="505" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A505" s="2">
         <v>42953</v>
       </c>
@@ -9825,7 +9826,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="506" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A506" s="2">
         <v>42953</v>
       </c>
@@ -9842,7 +9843,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="507" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A507" s="2">
         <v>42953</v>
       </c>
@@ -9859,7 +9860,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="508" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
         <v>76</v>
       </c>
@@ -9876,7 +9877,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="509" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A509" s="2">
         <v>42984</v>
       </c>
@@ -9893,7 +9894,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="510" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A510" s="2">
         <v>42984</v>
       </c>
@@ -9910,7 +9911,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="511" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A511" s="2">
         <v>42984</v>
       </c>
@@ -9927,7 +9928,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="512" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A512" s="2">
         <v>42984</v>
       </c>
@@ -9944,7 +9945,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="513" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A513" s="2">
         <v>42984</v>
       </c>
@@ -9961,7 +9962,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="514" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A514" s="2">
         <v>42984</v>
       </c>
@@ -9978,7 +9979,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="515" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A515" s="2">
         <v>42984</v>
       </c>
@@ -9995,7 +9996,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="516" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A516" s="2">
         <v>42984</v>
       </c>
@@ -10012,7 +10013,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="517" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A517" s="2">
         <v>42984</v>
       </c>
@@ -10029,7 +10030,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="518" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A518" s="2">
         <v>42984</v>
       </c>
@@ -10046,7 +10047,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="519" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A519" s="2">
         <v>42984</v>
       </c>
@@ -10063,7 +10064,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="520" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A520" s="2">
         <v>42984</v>
       </c>
@@ -10080,7 +10081,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="521" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
         <v>77</v>
       </c>
@@ -10097,7 +10098,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="522" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A522" s="2">
         <v>43014</v>
       </c>
@@ -10114,7 +10115,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="523" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A523" s="2">
         <v>43014</v>
       </c>
@@ -10131,7 +10132,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="524" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A524" s="2">
         <v>43014</v>
       </c>
@@ -10148,7 +10149,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="525" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A525" s="2">
         <v>43014</v>
       </c>
@@ -10165,7 +10166,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="526" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A526" s="2">
         <v>43014</v>
       </c>
@@ -10182,7 +10183,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="527" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A527" s="2">
         <v>43014</v>
       </c>
@@ -10199,7 +10200,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="528" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A528" s="2">
         <v>43014</v>
       </c>
@@ -10216,7 +10217,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="529" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A529" s="2">
         <v>43014</v>
       </c>
@@ -10233,7 +10234,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="530" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A530" s="2">
         <v>43014</v>
       </c>
@@ -10250,7 +10251,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="531" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A531" s="2">
         <v>43014</v>
       </c>
@@ -10267,7 +10268,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="532" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A532" s="2">
         <v>43014</v>
       </c>
@@ -10284,7 +10285,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="533" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A533" s="2">
         <v>43014</v>
       </c>
@@ -10301,7 +10302,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="534" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A534" s="2">
         <v>43014</v>
       </c>
@@ -10318,7 +10319,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="535" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A535" s="2">
         <v>43014</v>
       </c>
@@ -10335,7 +10336,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="536" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A536" s="2">
         <v>43014</v>
       </c>
@@ -10352,7 +10353,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="537" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A537" s="2">
         <v>43014</v>
       </c>
@@ -10369,7 +10370,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="538" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A538" s="2">
         <v>43014</v>
       </c>
@@ -10386,7 +10387,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="539" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
         <v>78</v>
       </c>
@@ -10403,7 +10404,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="540" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A540" s="2">
         <v>43045</v>
       </c>
@@ -10420,7 +10421,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="541" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A541" s="2">
         <v>43045</v>
       </c>
@@ -10437,7 +10438,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="542" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A542" s="2">
         <v>43045</v>
       </c>
@@ -10454,7 +10455,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="543" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A543" s="2">
         <v>43045</v>
       </c>
@@ -10471,7 +10472,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="544" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A544" s="2">
         <v>43045</v>
       </c>
@@ -10488,7 +10489,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="545" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A545" s="2">
         <v>43045</v>
       </c>
@@ -10505,7 +10506,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="546" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A546" s="2">
         <v>43045</v>
       </c>
@@ -10522,7 +10523,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="547" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A547" s="2">
         <v>43045</v>
       </c>
@@ -10539,7 +10540,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="548" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A548" s="2">
         <v>43045</v>
       </c>
@@ -10556,7 +10557,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="549" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A549" s="2">
         <v>43045</v>
       </c>
@@ -10573,7 +10574,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="550" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A550" s="2">
         <v>43045</v>
       </c>
@@ -10590,7 +10591,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="551" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A551" s="2">
         <v>43045</v>
       </c>
@@ -10607,7 +10608,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="552" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A552" s="2">
         <v>43045</v>
       </c>
@@ -10624,7 +10625,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="553" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A553" s="2">
         <v>43045</v>
       </c>
@@ -10641,7 +10642,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="554" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A554" s="2">
         <v>43045</v>
       </c>
@@ -10658,7 +10659,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="555" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A555" s="2">
         <v>43045</v>
       </c>
@@ -10675,7 +10676,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="556" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A556" s="2">
         <v>43045</v>
       </c>
@@ -10692,7 +10693,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="557" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A557" s="2">
         <v>43045</v>
       </c>
@@ -10709,7 +10710,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="558" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
         <v>79</v>
       </c>
@@ -10726,7 +10727,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="559" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A559" s="2">
         <v>43075</v>
       </c>
@@ -10743,7 +10744,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="560" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A560" s="2">
         <v>43075</v>
       </c>
@@ -10760,7 +10761,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="561" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A561" s="2">
         <v>43075</v>
       </c>
@@ -10777,7 +10778,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="562" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A562" s="2">
         <v>43075</v>
       </c>
@@ -10794,7 +10795,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="563" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A563" s="2">
         <v>43075</v>
       </c>
@@ -10811,7 +10812,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="564" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A564" s="2">
         <v>43075</v>
       </c>
@@ -10828,7 +10829,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="565" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A565" s="2">
         <v>43075</v>
       </c>
@@ -10845,7 +10846,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="566" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A566" s="2">
         <v>43075</v>
       </c>
@@ -10862,7 +10863,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="567" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A567" s="2">
         <v>43075</v>
       </c>
@@ -10879,7 +10880,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="568" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A568" s="2">
         <v>43075</v>
       </c>
@@ -10896,7 +10897,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="569" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A569" s="2">
         <v>43075</v>
       </c>
@@ -10913,7 +10914,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="570" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A570" s="2">
         <v>43075</v>
       </c>
@@ -10930,7 +10931,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="571" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A571" s="2">
         <v>43075</v>
       </c>
@@ -10947,7 +10948,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="572" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A572" s="2">
         <v>43075</v>
       </c>
@@ -10964,7 +10965,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="573" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A573" s="2">
         <v>43075</v>
       </c>
@@ -10981,7 +10982,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="574" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A574" s="2">
         <v>43075</v>
       </c>
@@ -10998,7 +10999,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="575" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A575" s="2">
         <v>43075</v>
       </c>
@@ -11015,7 +11016,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="576" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
         <v>80</v>
       </c>
@@ -11032,7 +11033,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="577" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
         <v>81</v>
       </c>
@@ -11049,7 +11050,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="578" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
         <v>81</v>
       </c>
@@ -11066,7 +11067,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="579" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
         <v>81</v>
       </c>
@@ -11083,7 +11084,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="580" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A580" t="s">
         <v>81</v>
       </c>
@@ -11100,7 +11101,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="581" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
         <v>81</v>
       </c>
@@ -11117,7 +11118,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="582" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
         <v>81</v>
       </c>
@@ -11134,7 +11135,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="583" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A583" t="s">
         <v>81</v>
       </c>
@@ -11151,7 +11152,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="584" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A584" t="s">
         <v>81</v>
       </c>
@@ -11168,7 +11169,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="585" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A585" t="s">
         <v>81</v>
       </c>
@@ -11185,7 +11186,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="586" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
         <v>81</v>
       </c>
@@ -11202,7 +11203,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="587" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A587" t="s">
         <v>81</v>
       </c>
@@ -11219,7 +11220,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="588" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A588" t="s">
         <v>81</v>
       </c>
@@ -11236,7 +11237,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="589" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A589" t="s">
         <v>81</v>
       </c>
@@ -11253,7 +11254,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="590" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A590" t="s">
         <v>81</v>
       </c>
@@ -11270,7 +11271,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="591" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A591" t="s">
         <v>81</v>
       </c>
@@ -11287,7 +11288,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="592" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A592" t="s">
         <v>81</v>
       </c>
@@ -11304,7 +11305,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="593" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A593" t="s">
         <v>81</v>
       </c>
@@ -11321,7 +11322,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="594" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A594" t="s">
         <v>81</v>
       </c>
@@ -11338,7 +11339,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="595" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A595" t="s">
         <v>82</v>
       </c>
@@ -11355,7 +11356,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="596" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A596" t="s">
         <v>83</v>
       </c>
@@ -11372,7 +11373,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="597" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A597" t="s">
         <v>83</v>
       </c>
@@ -11389,7 +11390,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="598" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A598" t="s">
         <v>83</v>
       </c>
@@ -11406,7 +11407,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="599" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A599" t="s">
         <v>83</v>
       </c>
@@ -11423,7 +11424,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="600" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A600" t="s">
         <v>83</v>
       </c>
@@ -11440,7 +11441,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="601" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A601" t="s">
         <v>83</v>
       </c>
@@ -11457,7 +11458,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="602" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A602" t="s">
         <v>83</v>
       </c>
@@ -11474,7 +11475,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="603" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A603" t="s">
         <v>83</v>
       </c>
@@ -11491,7 +11492,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="604" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A604" t="s">
         <v>83</v>
       </c>
@@ -11508,7 +11509,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="605" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A605" t="s">
         <v>83</v>
       </c>
@@ -11525,7 +11526,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="606" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A606" t="s">
         <v>83</v>
       </c>
@@ -11542,7 +11543,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="607" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A607" t="s">
         <v>83</v>
       </c>
@@ -11559,7 +11560,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="608" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A608" t="s">
         <v>83</v>
       </c>
@@ -11576,7 +11577,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="609" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A609" t="s">
         <v>83</v>
       </c>
@@ -11593,7 +11594,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="610" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A610" t="s">
         <v>83</v>
       </c>
@@ -11610,7 +11611,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="611" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A611" t="s">
         <v>83</v>
       </c>
@@ -11627,7 +11628,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="612" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A612" t="s">
         <v>83</v>
       </c>
@@ -11644,7 +11645,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="613" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A613" t="s">
         <v>83</v>
       </c>
@@ -11661,7 +11662,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="614" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A614" t="s">
         <v>83</v>
       </c>
@@ -11678,7 +11679,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="615" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A615" t="s">
         <v>84</v>
       </c>
@@ -11695,7 +11696,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="616" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A616" t="s">
         <v>85</v>
       </c>
@@ -11712,7 +11713,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="617" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A617" t="s">
         <v>85</v>
       </c>
@@ -11729,7 +11730,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="618" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A618" t="s">
         <v>85</v>
       </c>
@@ -11746,7 +11747,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="619" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A619" t="s">
         <v>85</v>
       </c>
@@ -11763,7 +11764,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="620" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A620" t="s">
         <v>85</v>
       </c>
@@ -11780,7 +11781,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="621" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A621" t="s">
         <v>85</v>
       </c>
@@ -11797,7 +11798,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="622" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A622" t="s">
         <v>85</v>
       </c>
@@ -11814,7 +11815,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="623" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A623" t="s">
         <v>85</v>
       </c>
@@ -11831,7 +11832,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="624" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A624" t="s">
         <v>85</v>
       </c>
@@ -11848,7 +11849,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="625" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A625" t="s">
         <v>85</v>
       </c>
@@ -11865,7 +11866,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="626" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A626" t="s">
         <v>85</v>
       </c>
@@ -11882,7 +11883,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="627" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A627" t="s">
         <v>85</v>
       </c>
@@ -11899,7 +11900,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="628" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A628" t="s">
         <v>85</v>
       </c>
@@ -11916,7 +11917,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="629" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A629" t="s">
         <v>85</v>
       </c>
@@ -11933,7 +11934,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="630" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A630" t="s">
         <v>85</v>
       </c>
@@ -11950,7 +11951,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="631" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A631" t="s">
         <v>85</v>
       </c>
@@ -11967,7 +11968,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="632" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A632" t="s">
         <v>85</v>
       </c>
@@ -11984,7 +11985,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="633" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A633" t="s">
         <v>85</v>
       </c>
@@ -12001,7 +12002,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="634" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A634" t="s">
         <v>85</v>
       </c>
@@ -12018,7 +12019,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="635" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A635" t="s">
         <v>86</v>
       </c>
@@ -12035,7 +12036,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="636" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A636" t="s">
         <v>87</v>
       </c>
@@ -12052,7 +12053,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="637" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A637" t="s">
         <v>87</v>
       </c>
@@ -12069,7 +12070,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="638" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A638" t="s">
         <v>87</v>
       </c>
@@ -12086,7 +12087,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="639" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A639" t="s">
         <v>87</v>
       </c>
@@ -12103,7 +12104,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="640" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A640" t="s">
         <v>87</v>
       </c>
@@ -12120,7 +12121,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="641" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A641" t="s">
         <v>87</v>
       </c>
@@ -12137,7 +12138,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="642" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A642" t="s">
         <v>87</v>
       </c>
@@ -12154,7 +12155,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="643" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A643" t="s">
         <v>87</v>
       </c>
@@ -12171,7 +12172,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="644" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A644" t="s">
         <v>87</v>
       </c>
@@ -12188,7 +12189,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="645" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A645" t="s">
         <v>87</v>
       </c>
@@ -12205,7 +12206,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="646" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A646" t="s">
         <v>87</v>
       </c>
@@ -12222,7 +12223,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="647" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A647" t="s">
         <v>87</v>
       </c>
@@ -12239,7 +12240,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="648" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A648" t="s">
         <v>87</v>
       </c>
@@ -12256,7 +12257,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="649" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A649" t="s">
         <v>87</v>
       </c>
@@ -12273,7 +12274,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="650" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A650" t="s">
         <v>87</v>
       </c>
@@ -12290,7 +12291,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="651" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A651" t="s">
         <v>88</v>
       </c>
@@ -12307,7 +12308,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="652" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A652" t="s">
         <v>89</v>
       </c>
@@ -12324,7 +12325,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="653" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="653" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A653" t="s">
         <v>89</v>
       </c>
@@ -12341,7 +12342,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="654" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="654" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A654" t="s">
         <v>89</v>
       </c>
@@ -12358,7 +12359,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="655" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="655" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A655" t="s">
         <v>89</v>
       </c>
@@ -12375,7 +12376,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="656" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A656" t="s">
         <v>89</v>
       </c>
@@ -12392,7 +12393,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="657" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="657" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A657" t="s">
         <v>89</v>
       </c>
@@ -12409,7 +12410,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="658" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A658" t="s">
         <v>89</v>
       </c>
@@ -12426,7 +12427,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="659" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="659" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A659" t="s">
         <v>89</v>
       </c>
@@ -12443,7 +12444,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="660" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="660" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A660" t="s">
         <v>89</v>
       </c>
@@ -12460,7 +12461,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="661" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="661" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A661" t="s">
         <v>89</v>
       </c>
@@ -12477,7 +12478,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="662" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="662" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A662" t="s">
         <v>89</v>
       </c>
@@ -12494,7 +12495,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="663" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="663" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A663" t="s">
         <v>89</v>
       </c>
@@ -12511,7 +12512,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="664" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="664" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A664" t="s">
         <v>89</v>
       </c>
@@ -12528,7 +12529,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="665" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="665" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A665" t="s">
         <v>89</v>
       </c>
@@ -12545,7 +12546,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="666" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A666" t="s">
         <v>89</v>
       </c>
@@ -12562,7 +12563,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="667" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="667" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A667" t="s">
         <v>89</v>
       </c>
@@ -12579,7 +12580,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="668" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="668" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A668" t="s">
         <v>89</v>
       </c>
@@ -12596,7 +12597,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="669" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="669" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A669" t="s">
         <v>89</v>
       </c>
@@ -12613,7 +12614,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="670" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="670" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A670" t="s">
         <v>89</v>
       </c>
@@ -12630,7 +12631,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="671" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="671" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A671" t="s">
         <v>90</v>
       </c>
@@ -12647,7 +12648,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="672" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="672" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A672" t="s">
         <v>91</v>
       </c>
@@ -12664,7 +12665,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="673" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="673" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A673" t="s">
         <v>91</v>
       </c>
@@ -12681,7 +12682,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="674" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="674" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A674" t="s">
         <v>91</v>
       </c>
@@ -12698,7 +12699,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="675" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="675" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A675" t="s">
         <v>91</v>
       </c>
@@ -12715,7 +12716,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="676" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="676" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A676" t="s">
         <v>91</v>
       </c>
@@ -12732,7 +12733,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="677" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="677" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A677" t="s">
         <v>91</v>
       </c>
@@ -12749,7 +12750,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="678" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="678" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A678" t="s">
         <v>91</v>
       </c>
@@ -12766,7 +12767,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="679" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="679" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A679" t="s">
         <v>91</v>
       </c>
@@ -12783,7 +12784,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="680" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="680" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A680" t="s">
         <v>91</v>
       </c>
@@ -12800,7 +12801,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="681" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="681" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A681" t="s">
         <v>91</v>
       </c>
@@ -12817,7 +12818,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="682" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="682" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A682" t="s">
         <v>91</v>
       </c>
@@ -12834,7 +12835,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="683" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="683" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A683" t="s">
         <v>91</v>
       </c>
@@ -12851,7 +12852,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="684" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="684" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A684" t="s">
         <v>91</v>
       </c>
@@ -12868,7 +12869,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="685" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="685" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A685" t="s">
         <v>91</v>
       </c>
@@ -12885,7 +12886,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="686" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="686" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A686" t="s">
         <v>91</v>
       </c>
@@ -12902,7 +12903,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="687" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="687" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A687" t="s">
         <v>91</v>
       </c>
@@ -12919,7 +12920,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="688" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="688" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A688" t="s">
         <v>91</v>
       </c>
@@ -12936,7 +12937,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="689" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="689" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A689" t="s">
         <v>91</v>
       </c>
@@ -12953,7 +12954,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="690" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="690" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A690" t="s">
         <v>91</v>
       </c>
@@ -12970,7 +12971,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="691" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="691" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A691" t="s">
         <v>91</v>
       </c>
@@ -12987,7 +12988,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="692" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="692" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A692" t="s">
         <v>92</v>
       </c>
@@ -13004,7 +13005,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="693" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="693" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A693" t="s">
         <v>93</v>
       </c>
@@ -13021,7 +13022,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="694" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="694" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A694" t="s">
         <v>93</v>
       </c>
@@ -13038,7 +13039,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="695" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="695" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A695" t="s">
         <v>93</v>
       </c>
@@ -13055,7 +13056,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="696" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="696" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A696" t="s">
         <v>93</v>
       </c>
@@ -13072,7 +13073,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="697" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="697" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A697" t="s">
         <v>93</v>
       </c>
@@ -13089,7 +13090,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="698" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="698" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A698" t="s">
         <v>93</v>
       </c>
@@ -13106,7 +13107,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="699" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="699" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A699" t="s">
         <v>93</v>
       </c>
@@ -13123,7 +13124,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="700" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="700" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A700" t="s">
         <v>93</v>
       </c>
@@ -13140,7 +13141,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="701" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="701" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A701" t="s">
         <v>93</v>
       </c>
@@ -13157,7 +13158,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="702" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="702" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A702" t="s">
         <v>93</v>
       </c>
@@ -13174,7 +13175,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="703" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="703" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A703" t="s">
         <v>93</v>
       </c>
@@ -13191,7 +13192,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="704" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="704" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A704" t="s">
         <v>93</v>
       </c>
@@ -13208,7 +13209,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="705" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="705" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A705" t="s">
         <v>93</v>
       </c>
@@ -13225,7 +13226,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="706" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="706" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A706" t="s">
         <v>93</v>
       </c>
@@ -13242,7 +13243,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="707" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="707" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A707" t="s">
         <v>93</v>
       </c>
@@ -13259,7 +13260,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="708" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="708" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A708" t="s">
         <v>93</v>
       </c>
@@ -13276,7 +13277,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="709" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="709" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A709" t="s">
         <v>93</v>
       </c>
@@ -13293,7 +13294,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="710" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="710" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A710" t="s">
         <v>93</v>
       </c>
@@ -13310,7 +13311,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="711" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="711" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A711" t="s">
         <v>93</v>
       </c>
@@ -13327,7 +13328,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="712" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="712" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A712" t="s">
         <v>93</v>
       </c>
@@ -13344,7 +13345,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="713" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="713" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A713" t="s">
         <v>94</v>
       </c>
@@ -13361,7 +13362,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="714" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="714" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A714" t="s">
         <v>95</v>
       </c>
@@ -13378,7 +13379,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="715" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="715" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A715" t="s">
         <v>95</v>
       </c>
@@ -13395,7 +13396,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="716" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="716" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A716" t="s">
         <v>95</v>
       </c>
@@ -13412,7 +13413,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="717" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="717" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A717" t="s">
         <v>95</v>
       </c>
@@ -13429,7 +13430,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="718" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="718" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A718" t="s">
         <v>95</v>
       </c>
@@ -13446,7 +13447,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="719" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="719" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A719" t="s">
         <v>95</v>
       </c>
@@ -13463,7 +13464,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="720" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="720" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A720" t="s">
         <v>95</v>
       </c>
@@ -13480,7 +13481,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="721" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="721" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A721" t="s">
         <v>95</v>
       </c>
@@ -13497,7 +13498,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="722" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="722" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A722" t="s">
         <v>95</v>
       </c>
@@ -13514,7 +13515,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="723" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="723" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A723" t="s">
         <v>95</v>
       </c>
@@ -13531,7 +13532,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="724" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="724" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A724" t="s">
         <v>95</v>
       </c>
@@ -13548,7 +13549,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="725" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="725" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A725" t="s">
         <v>95</v>
       </c>
@@ -13565,7 +13566,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="726" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="726" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A726" t="s">
         <v>95</v>
       </c>
@@ -13582,7 +13583,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="727" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="727" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A727" t="s">
         <v>95</v>
       </c>
@@ -13599,7 +13600,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="728" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="728" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A728" t="s">
         <v>95</v>
       </c>
@@ -13616,7 +13617,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="729" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="729" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A729" t="s">
         <v>95</v>
       </c>
@@ -13633,7 +13634,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="730" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="730" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A730" t="s">
         <v>95</v>
       </c>
@@ -13650,7 +13651,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="731" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="731" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A731" t="s">
         <v>95</v>
       </c>
@@ -13667,7 +13668,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="732" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="732" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A732" t="s">
         <v>96</v>
       </c>
@@ -13684,7 +13685,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="733" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="733" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A733" t="s">
         <v>97</v>
       </c>
@@ -13701,7 +13702,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="734" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="734" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A734" t="s">
         <v>97</v>
       </c>
@@ -13718,7 +13719,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="735" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="735" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A735" t="s">
         <v>97</v>
       </c>
@@ -13735,7 +13736,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="736" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="736" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A736" t="s">
         <v>97</v>
       </c>
@@ -13752,7 +13753,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="737" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="737" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A737" t="s">
         <v>97</v>
       </c>
@@ -13769,7 +13770,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="738" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="738" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A738" t="s">
         <v>97</v>
       </c>
@@ -13786,7 +13787,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="739" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="739" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A739" t="s">
         <v>97</v>
       </c>
@@ -13803,7 +13804,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="740" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="740" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A740" t="s">
         <v>97</v>
       </c>
@@ -13820,7 +13821,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="741" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="741" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A741" t="s">
         <v>97</v>
       </c>
@@ -13837,7 +13838,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="742" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="742" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A742" t="s">
         <v>97</v>
       </c>
@@ -13854,7 +13855,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="743" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="743" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A743" t="s">
         <v>97</v>
       </c>
@@ -13871,7 +13872,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="744" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="744" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A744" t="s">
         <v>97</v>
       </c>
@@ -13888,7 +13889,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="745" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="745" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A745" t="s">
         <v>97</v>
       </c>
@@ -13905,7 +13906,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="746" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="746" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A746" t="s">
         <v>97</v>
       </c>
@@ -13922,7 +13923,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="747" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="747" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A747" t="s">
         <v>97</v>
       </c>
@@ -13939,7 +13940,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="748" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="748" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A748" t="s">
         <v>97</v>
       </c>
@@ -13956,7 +13957,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="749" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="749" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A749" t="s">
         <v>97</v>
       </c>
@@ -13973,7 +13974,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="750" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="750" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A750" t="s">
         <v>97</v>
       </c>
@@ -13990,7 +13991,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="751" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="751" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A751" t="s">
         <v>97</v>
       </c>
@@ -14007,7 +14008,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="752" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="752" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A752" t="s">
         <v>98</v>
       </c>
@@ -14024,7 +14025,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="753" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="753" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A753" t="s">
         <v>99</v>
       </c>
@@ -14041,7 +14042,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="754" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="754" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A754" t="s">
         <v>99</v>
       </c>
@@ -14058,7 +14059,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="755" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="755" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A755" t="s">
         <v>99</v>
       </c>
@@ -14075,7 +14076,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="756" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="756" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A756" t="s">
         <v>99</v>
       </c>
@@ -14092,7 +14093,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="757" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="757" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A757" t="s">
         <v>99</v>
       </c>
@@ -14109,7 +14110,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="758" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="758" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A758" t="s">
         <v>99</v>
       </c>
@@ -14126,7 +14127,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="759" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="759" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A759" t="s">
         <v>99</v>
       </c>
@@ -14143,7 +14144,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="760" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="760" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A760" t="s">
         <v>99</v>
       </c>
@@ -14160,7 +14161,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="761" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="761" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A761" t="s">
         <v>99</v>
       </c>
@@ -14177,7 +14178,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="762" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="762" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A762" t="s">
         <v>99</v>
       </c>
@@ -14194,7 +14195,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="763" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="763" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A763" t="s">
         <v>99</v>
       </c>
@@ -14211,7 +14212,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="764" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="764" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A764" t="s">
         <v>99</v>
       </c>
@@ -14228,7 +14229,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="765" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="765" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A765" t="s">
         <v>99</v>
       </c>
@@ -14245,7 +14246,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="766" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="766" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A766" t="s">
         <v>99</v>
       </c>
@@ -14262,7 +14263,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="767" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="767" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A767" t="s">
         <v>99</v>
       </c>
@@ -14279,7 +14280,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="768" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="768" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A768" t="s">
         <v>99</v>
       </c>
@@ -14296,7 +14297,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="769" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="769" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A769" t="s">
         <v>99</v>
       </c>
@@ -14313,7 +14314,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="770" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="770" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A770" t="s">
         <v>99</v>
       </c>
@@ -14330,7 +14331,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="771" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="771" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A771" t="s">
         <v>99</v>
       </c>
@@ -14347,7 +14348,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="772" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="772" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A772" t="s">
         <v>100</v>
       </c>
@@ -14364,7 +14365,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="773" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="773" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A773" t="s">
         <v>101</v>
       </c>
@@ -14381,7 +14382,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="774" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="774" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A774" t="s">
         <v>101</v>
       </c>
@@ -14398,7 +14399,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="775" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="775" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A775" t="s">
         <v>101</v>
       </c>
@@ -14415,7 +14416,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="776" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="776" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A776" t="s">
         <v>101</v>
       </c>
@@ -14432,7 +14433,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="777" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="777" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A777" t="s">
         <v>101</v>
       </c>
@@ -14449,7 +14450,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="778" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="778" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A778" t="s">
         <v>101</v>
       </c>
@@ -14466,7 +14467,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="779" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="779" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A779" t="s">
         <v>101</v>
       </c>
@@ -14483,7 +14484,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="780" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="780" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A780" t="s">
         <v>101</v>
       </c>
@@ -14500,7 +14501,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="781" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="781" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A781" t="s">
         <v>101</v>
       </c>
@@ -14517,7 +14518,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="782" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="782" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A782" t="s">
         <v>101</v>
       </c>
@@ -14534,7 +14535,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="783" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="783" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A783" t="s">
         <v>101</v>
       </c>
@@ -14551,7 +14552,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="784" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="784" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A784" t="s">
         <v>101</v>
       </c>
@@ -14568,7 +14569,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="785" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="785" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A785" t="s">
         <v>101</v>
       </c>
@@ -14585,7 +14586,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="786" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="786" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A786" t="s">
         <v>101</v>
       </c>
@@ -14602,7 +14603,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="787" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="787" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A787" t="s">
         <v>101</v>
       </c>
@@ -14619,7 +14620,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="788" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="788" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A788" t="s">
         <v>101</v>
       </c>
@@ -14636,7 +14637,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="789" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="789" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A789" t="s">
         <v>102</v>
       </c>
@@ -14653,7 +14654,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="790" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="790" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A790" t="s">
         <v>103</v>
       </c>
@@ -14670,7 +14671,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="791" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="791" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A791" t="s">
         <v>103</v>
       </c>
@@ -14687,7 +14688,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="792" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="792" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A792" t="s">
         <v>103</v>
       </c>
@@ -14704,7 +14705,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="793" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="793" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A793" t="s">
         <v>103</v>
       </c>
@@ -14721,7 +14722,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="794" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="794" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A794" t="s">
         <v>103</v>
       </c>
@@ -14738,7 +14739,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="795" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="795" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A795" t="s">
         <v>103</v>
       </c>
@@ -14755,7 +14756,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="796" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="796" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A796" t="s">
         <v>103</v>
       </c>
@@ -14772,7 +14773,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="797" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="797" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A797" t="s">
         <v>103</v>
       </c>
@@ -14789,7 +14790,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="798" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="798" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A798" t="s">
         <v>103</v>
       </c>
@@ -14806,7 +14807,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="799" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="799" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A799" t="s">
         <v>103</v>
       </c>
@@ -14823,7 +14824,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="800" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="800" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A800" t="s">
         <v>103</v>
       </c>
@@ -14840,7 +14841,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="801" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="801" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A801" t="s">
         <v>103</v>
       </c>
@@ -14857,7 +14858,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="802" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="802" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A802" t="s">
         <v>103</v>
       </c>
@@ -14874,7 +14875,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="803" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="803" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A803" t="s">
         <v>103</v>
       </c>
@@ -14891,7 +14892,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="804" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="804" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A804" t="s">
         <v>103</v>
       </c>
@@ -14908,7 +14909,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="805" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="805" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A805" t="s">
         <v>103</v>
       </c>
@@ -14925,7 +14926,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="806" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="806" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A806" t="s">
         <v>103</v>
       </c>
@@ -14942,7 +14943,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="807" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="807" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A807" t="s">
         <v>103</v>
       </c>
@@ -14959,7 +14960,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="808" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="808" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A808" t="s">
         <v>103</v>
       </c>
@@ -14976,7 +14977,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="809" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="809" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A809" t="s">
         <v>104</v>
       </c>
@@ -14993,7 +14994,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="810" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="810" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A810" t="s">
         <v>105</v>
       </c>
@@ -15010,7 +15011,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="811" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="811" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A811" t="s">
         <v>105</v>
       </c>
@@ -15027,7 +15028,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="812" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="812" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A812" t="s">
         <v>105</v>
       </c>
@@ -15044,7 +15045,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="813" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="813" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A813" t="s">
         <v>105</v>
       </c>
@@ -15061,7 +15062,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="814" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="814" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A814" t="s">
         <v>105</v>
       </c>
@@ -15078,7 +15079,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="815" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="815" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A815" t="s">
         <v>105</v>
       </c>
@@ -15095,7 +15096,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="816" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="816" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A816" t="s">
         <v>105</v>
       </c>
@@ -15112,7 +15113,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="817" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="817" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A817" t="s">
         <v>105</v>
       </c>
@@ -15129,7 +15130,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="818" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="818" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A818" t="s">
         <v>105</v>
       </c>
@@ -15146,7 +15147,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="819" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="819" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A819" t="s">
         <v>105</v>
       </c>
@@ -15163,7 +15164,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="820" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="820" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A820" t="s">
         <v>105</v>
       </c>
@@ -15180,7 +15181,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="821" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="821" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A821" t="s">
         <v>105</v>
       </c>
@@ -15197,7 +15198,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="822" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="822" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A822" t="s">
         <v>105</v>
       </c>
@@ -15214,7 +15215,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="823" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="823" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A823" t="s">
         <v>105</v>
       </c>
@@ -15231,7 +15232,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="824" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="824" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A824" t="s">
         <v>105</v>
       </c>
@@ -15248,7 +15249,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="825" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="825" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A825" t="s">
         <v>105</v>
       </c>
@@ -15265,7 +15266,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="826" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="826" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A826" t="s">
         <v>105</v>
       </c>
@@ -15282,7 +15283,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="827" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="827" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A827" t="s">
         <v>106</v>
       </c>
@@ -15299,7 +15300,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="828" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="828" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A828" t="s">
         <v>107</v>
       </c>
@@ -15316,7 +15317,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="829" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="829" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A829" t="s">
         <v>107</v>
       </c>
@@ -15333,7 +15334,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="830" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="830" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A830" t="s">
         <v>107</v>
       </c>
@@ -15350,7 +15351,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="831" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="831" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A831" t="s">
         <v>107</v>
       </c>
@@ -15367,7 +15368,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="832" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="832" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A832" t="s">
         <v>107</v>
       </c>
@@ -15384,7 +15385,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="833" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="833" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A833" t="s">
         <v>107</v>
       </c>
@@ -15401,7 +15402,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="834" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="834" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A834" t="s">
         <v>107</v>
       </c>
@@ -15418,7 +15419,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="835" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="835" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A835" t="s">
         <v>107</v>
       </c>
@@ -15435,7 +15436,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="836" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="836" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A836" t="s">
         <v>107</v>
       </c>
@@ -15452,7 +15453,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="837" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="837" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A837" t="s">
         <v>107</v>
       </c>
@@ -15469,7 +15470,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="838" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="838" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A838" t="s">
         <v>107</v>
       </c>
@@ -15486,7 +15487,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="839" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="839" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A839" t="s">
         <v>107</v>
       </c>
@@ -15503,7 +15504,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="840" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="840" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A840" t="s">
         <v>107</v>
       </c>
@@ -15520,7 +15521,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="841" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="841" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A841" t="s">
         <v>107</v>
       </c>
@@ -15537,7 +15538,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="842" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="842" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A842" t="s">
         <v>108</v>
       </c>
@@ -15554,7 +15555,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="843" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="843" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A843" t="s">
         <v>109</v>
       </c>
@@ -15571,7 +15572,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="844" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="844" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A844" t="s">
         <v>109</v>
       </c>
@@ -15588,7 +15589,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="845" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="845" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A845" t="s">
         <v>109</v>
       </c>
@@ -15605,7 +15606,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="846" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="846" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A846" t="s">
         <v>109</v>
       </c>
@@ -15622,7 +15623,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="847" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="847" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A847" t="s">
         <v>109</v>
       </c>
@@ -15639,7 +15640,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="848" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="848" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A848" t="s">
         <v>109</v>
       </c>
@@ -15656,7 +15657,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="849" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="849" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A849" t="s">
         <v>109</v>
       </c>
@@ -15673,7 +15674,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="850" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="850" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A850" t="s">
         <v>109</v>
       </c>
@@ -15690,7 +15691,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="851" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="851" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A851" t="s">
         <v>109</v>
       </c>
@@ -15707,7 +15708,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="852" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="852" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A852" t="s">
         <v>109</v>
       </c>
@@ -15724,7 +15725,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="853" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="853" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A853" t="s">
         <v>109</v>
       </c>
@@ -15741,7 +15742,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="854" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="854" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A854" t="s">
         <v>109</v>
       </c>
@@ -15758,7 +15759,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="855" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="855" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A855" t="s">
         <v>109</v>
       </c>
@@ -15775,7 +15776,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="856" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="856" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A856" t="s">
         <v>110</v>
       </c>
@@ -15792,7 +15793,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="857" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="857" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A857" t="s">
         <v>111</v>
       </c>
@@ -15809,7 +15810,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="858" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="858" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A858" t="s">
         <v>111</v>
       </c>
@@ -15826,7 +15827,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="859" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="859" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A859" t="s">
         <v>111</v>
       </c>
@@ -15843,7 +15844,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="860" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="860" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A860" t="s">
         <v>111</v>
       </c>
@@ -15860,7 +15861,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="861" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="861" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A861" t="s">
         <v>111</v>
       </c>
@@ -15877,7 +15878,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="862" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="862" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A862" t="s">
         <v>111</v>
       </c>
@@ -15894,7 +15895,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="863" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="863" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A863" t="s">
         <v>111</v>
       </c>
@@ -15911,7 +15912,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="864" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="864" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A864" t="s">
         <v>111</v>
       </c>
@@ -15928,7 +15929,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="865" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="865" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A865" t="s">
         <v>111</v>
       </c>
@@ -15945,7 +15946,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="866" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="866" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A866" t="s">
         <v>111</v>
       </c>
@@ -15962,7 +15963,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="867" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="867" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A867" t="s">
         <v>111</v>
       </c>
@@ -15979,7 +15980,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="868" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="868" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A868" t="s">
         <v>111</v>
       </c>
@@ -15996,7 +15997,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="869" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="869" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A869" t="s">
         <v>111</v>
       </c>
@@ -16013,7 +16014,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="870" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="870" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A870" t="s">
         <v>111</v>
       </c>
@@ -16030,7 +16031,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="871" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="871" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A871" t="s">
         <v>111</v>
       </c>
@@ -16047,7 +16048,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="872" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="872" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A872" t="s">
         <v>112</v>
       </c>
@@ -16064,7 +16065,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="873" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="873" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A873" t="s">
         <v>113</v>
       </c>
@@ -16081,7 +16082,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="874" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="874" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A874" t="s">
         <v>113</v>
       </c>
@@ -16098,7 +16099,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="875" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="875" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A875" t="s">
         <v>113</v>
       </c>
@@ -16115,7 +16116,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="876" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="876" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A876" t="s">
         <v>113</v>
       </c>
@@ -16132,7 +16133,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="877" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="877" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A877" t="s">
         <v>113</v>
       </c>
@@ -16149,7 +16150,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="878" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="878" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A878" t="s">
         <v>113</v>
       </c>
@@ -16166,7 +16167,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="879" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="879" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A879" t="s">
         <v>113</v>
       </c>
@@ -16183,7 +16184,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="880" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="880" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A880" t="s">
         <v>113</v>
       </c>
@@ -16200,7 +16201,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="881" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="881" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A881" t="s">
         <v>113</v>
       </c>
@@ -16217,7 +16218,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="882" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="882" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A882" t="s">
         <v>113</v>
       </c>
@@ -16234,7 +16235,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="883" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="883" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A883" t="s">
         <v>113</v>
       </c>
@@ -16251,7 +16252,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="884" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="884" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A884" t="s">
         <v>113</v>
       </c>
@@ -16268,7 +16269,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="885" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="885" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A885" t="s">
         <v>113</v>
       </c>
@@ -16285,7 +16286,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="886" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="886" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A886" t="s">
         <v>113</v>
       </c>
@@ -16302,7 +16303,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="887" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="887" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A887" t="s">
         <v>114</v>
       </c>
@@ -16319,7 +16320,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="888" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="888" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A888" t="s">
         <v>115</v>
       </c>
@@ -16336,7 +16337,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="889" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="889" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A889" t="s">
         <v>115</v>
       </c>
@@ -16353,7 +16354,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="890" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="890" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A890" t="s">
         <v>115</v>
       </c>
@@ -16370,7 +16371,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="891" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="891" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A891" t="s">
         <v>115</v>
       </c>
@@ -16387,7 +16388,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="892" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="892" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A892" t="s">
         <v>115</v>
       </c>
@@ -16404,7 +16405,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="893" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="893" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A893" t="s">
         <v>115</v>
       </c>
@@ -16421,7 +16422,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="894" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="894" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A894" t="s">
         <v>115</v>
       </c>
@@ -16438,7 +16439,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="895" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="895" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A895" t="s">
         <v>115</v>
       </c>
@@ -16455,7 +16456,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="896" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="896" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A896" t="s">
         <v>115</v>
       </c>
@@ -16472,7 +16473,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="897" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="897" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A897" t="s">
         <v>115</v>
       </c>
@@ -16489,7 +16490,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="898" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="898" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A898" t="s">
         <v>115</v>
       </c>
@@ -16506,7 +16507,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="899" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="899" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A899" t="s">
         <v>115</v>
       </c>
@@ -16523,7 +16524,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="900" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="900" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A900" t="s">
         <v>115</v>
       </c>
@@ -16540,7 +16541,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="901" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="901" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A901" t="s">
         <v>116</v>
       </c>
@@ -16557,7 +16558,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="902" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="902" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A902" s="2">
         <v>42742</v>
       </c>
@@ -16574,7 +16575,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="903" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="903" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A903" s="2">
         <v>42742</v>
       </c>
@@ -16591,7 +16592,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="904" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="904" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A904" s="2">
         <v>42742</v>
       </c>
@@ -16608,7 +16609,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="905" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="905" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A905" s="2">
         <v>42742</v>
       </c>
@@ -16625,7 +16626,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="906" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="906" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A906" s="2">
         <v>42742</v>
       </c>
@@ -16642,7 +16643,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="907" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="907" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A907" s="2">
         <v>42742</v>
       </c>
@@ -16659,7 +16660,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="908" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="908" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A908" s="2">
         <v>42742</v>
       </c>
@@ -16676,7 +16677,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="909" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="909" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A909" s="2">
         <v>42742</v>
       </c>
@@ -16693,7 +16694,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="910" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="910" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A910" s="2">
         <v>42742</v>
       </c>
@@ -16710,7 +16711,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="911" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="911" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A911" s="2">
         <v>42742</v>
       </c>
@@ -16727,7 +16728,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="912" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="912" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A912" s="2">
         <v>42742</v>
       </c>
@@ -16744,7 +16745,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="913" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="913" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A913" s="2">
         <v>42742</v>
       </c>
@@ -16761,7 +16762,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="914" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="914" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A914" s="2">
         <v>42742</v>
       </c>
@@ -16778,7 +16779,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="915" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="915" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A915" s="2">
         <v>42742</v>
       </c>
@@ -16795,7 +16796,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="916" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="916" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A916" s="2">
         <v>42742</v>
       </c>
@@ -16812,7 +16813,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="917" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="917" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A917" s="2">
         <v>42742</v>
       </c>
@@ -16829,7 +16830,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="918" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="918" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A918" t="s">
         <v>117</v>
       </c>
@@ -16846,7 +16847,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="919" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="919" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A919" s="2">
         <v>42773</v>
       </c>
@@ -16863,7 +16864,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="920" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="920" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A920" s="2">
         <v>42773</v>
       </c>
@@ -16880,7 +16881,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="921" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="921" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A921" s="2">
         <v>42773</v>
       </c>
@@ -16897,7 +16898,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="922" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="922" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A922" s="2">
         <v>42773</v>
       </c>
@@ -16914,7 +16915,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="923" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="923" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A923" s="2">
         <v>42773</v>
       </c>
@@ -16931,7 +16932,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="924" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="924" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A924" s="2">
         <v>42773</v>
       </c>
@@ -16948,7 +16949,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="925" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="925" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A925" s="2">
         <v>42773</v>
       </c>
@@ -16965,7 +16966,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="926" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="926" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A926" s="2">
         <v>42773</v>
       </c>
@@ -16982,7 +16983,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="927" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="927" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A927" s="2">
         <v>42773</v>
       </c>
@@ -16999,7 +17000,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="928" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="928" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A928" s="2">
         <v>42773</v>
       </c>
@@ -17016,7 +17017,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="929" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="929" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A929" s="2">
         <v>42773</v>
       </c>
@@ -17033,7 +17034,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="930" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="930" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A930" s="2">
         <v>42773</v>
       </c>
@@ -17050,7 +17051,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="931" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="931" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A931" s="2">
         <v>42773</v>
       </c>
@@ -17067,7 +17068,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="932" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="932" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A932" s="2">
         <v>42773</v>
       </c>
@@ -17084,7 +17085,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="933" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="933" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A933" s="2">
         <v>42773</v>
       </c>
@@ -17101,7 +17102,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="934" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="934" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A934" s="2">
         <v>42773</v>
       </c>
@@ -17118,7 +17119,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="935" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="935" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A935" t="s">
         <v>118</v>
       </c>
@@ -17135,7 +17136,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="936" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="936" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A936" s="2">
         <v>42801</v>
       </c>
@@ -17152,7 +17153,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="937" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="937" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A937" s="2">
         <v>42801</v>
       </c>
@@ -17169,7 +17170,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="938" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="938" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A938" s="2">
         <v>42801</v>
       </c>
@@ -17186,7 +17187,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="939" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="939" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A939" s="2">
         <v>42801</v>
       </c>
@@ -17203,7 +17204,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="940" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="940" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A940" s="2">
         <v>42801</v>
       </c>
@@ -17220,7 +17221,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="941" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="941" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A941" s="2">
         <v>42801</v>
       </c>
@@ -17237,7 +17238,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="942" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="942" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A942" s="2">
         <v>42801</v>
       </c>
@@ -17254,7 +17255,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="943" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="943" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A943" s="2">
         <v>42801</v>
       </c>
@@ -17271,7 +17272,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="944" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="944" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A944" s="2">
         <v>42801</v>
       </c>
@@ -17288,7 +17289,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="945" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="945" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A945" s="2">
         <v>42801</v>
       </c>
@@ -17305,7 +17306,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="946" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="946" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A946" s="2">
         <v>42801</v>
       </c>
@@ -17322,7 +17323,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="947" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="947" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A947" s="2">
         <v>42801</v>
       </c>
@@ -17339,7 +17340,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="948" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="948" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A948" s="2">
         <v>42801</v>
       </c>
@@ -17356,7 +17357,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="949" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="949" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A949" s="2">
         <v>42801</v>
       </c>
@@ -17373,7 +17374,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="950" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="950" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A950" s="2">
         <v>42801</v>
       </c>
@@ -17390,7 +17391,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="951" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="951" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A951" s="2">
         <v>42801</v>
       </c>
@@ -17407,7 +17408,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="952" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="952" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A952" t="s">
         <v>119</v>
       </c>
@@ -17424,7 +17425,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="953" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="953" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A953" s="2">
         <v>42832</v>
       </c>
@@ -17441,7 +17442,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="954" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="954" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A954" s="2">
         <v>42832</v>
       </c>
@@ -17458,7 +17459,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="955" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="955" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A955" s="2">
         <v>42832</v>
       </c>
@@ -17475,7 +17476,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="956" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="956" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A956" s="2">
         <v>42832</v>
       </c>
@@ -17492,7 +17493,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="957" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="957" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A957" s="2">
         <v>42832</v>
       </c>
@@ -17509,7 +17510,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="958" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="958" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A958" s="2">
         <v>42832</v>
       </c>
@@ -17526,7 +17527,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="959" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="959" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A959" s="2">
         <v>42832</v>
       </c>
@@ -17543,7 +17544,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="960" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="960" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A960" s="2">
         <v>42832</v>
       </c>
@@ -17560,7 +17561,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="961" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="961" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A961" s="2">
         <v>42832</v>
       </c>
@@ -17577,7 +17578,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="962" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="962" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A962" s="2">
         <v>42832</v>
       </c>
@@ -17594,7 +17595,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="963" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="963" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A963" s="2">
         <v>42832</v>
       </c>
@@ -17611,7 +17612,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="964" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="964" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A964" s="2">
         <v>42832</v>
       </c>
@@ -17628,7 +17629,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="965" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="965" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A965" s="2">
         <v>42832</v>
       </c>
@@ -17645,7 +17646,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="966" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="966" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A966" s="2">
         <v>42832</v>
       </c>
@@ -17662,7 +17663,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="967" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="967" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A967" s="2">
         <v>42832</v>
       </c>
@@ -17679,7 +17680,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="968" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="968" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A968" t="s">
         <v>120</v>
       </c>
@@ -17696,7 +17697,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="969" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="969" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A969" s="2">
         <v>42862</v>
       </c>
@@ -17713,7 +17714,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="970" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="970" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A970" s="2">
         <v>42862</v>
       </c>
@@ -17730,7 +17731,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="971" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="971" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A971" s="2">
         <v>42862</v>
       </c>
@@ -17747,7 +17748,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="972" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="972" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A972" s="2">
         <v>42862</v>
       </c>
@@ -17764,7 +17765,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="973" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="973" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A973" s="2">
         <v>42862</v>
       </c>
@@ -17781,7 +17782,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="974" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="974" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A974" s="2">
         <v>42862</v>
       </c>
@@ -17798,7 +17799,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="975" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="975" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A975" s="2">
         <v>42862</v>
       </c>
@@ -17815,7 +17816,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="976" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="976" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A976" s="2">
         <v>42862</v>
       </c>
@@ -17832,7 +17833,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="977" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="977" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A977" s="2">
         <v>42862</v>
       </c>
@@ -17849,7 +17850,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="978" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="978" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A978" s="2">
         <v>42862</v>
       </c>
@@ -17866,7 +17867,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="979" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="979" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A979" s="2">
         <v>42862</v>
       </c>
@@ -17883,7 +17884,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="980" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="980" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A980" s="2">
         <v>42862</v>
       </c>
@@ -17900,7 +17901,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="981" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="981" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A981" s="2">
         <v>42862</v>
       </c>
@@ -17917,7 +17918,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="982" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="982" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A982" s="2">
         <v>42862</v>
       </c>
@@ -17934,7 +17935,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="983" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="983" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A983" s="2">
         <v>42862</v>
       </c>
@@ -17951,7 +17952,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="984" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="984" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A984" s="2">
         <v>42862</v>
       </c>
@@ -17968,7 +17969,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="985" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="985" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A985" t="s">
         <v>121</v>
       </c>
@@ -17985,7 +17986,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="986" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="986" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A986" s="2">
         <v>42893</v>
       </c>
@@ -18002,7 +18003,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="987" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="987" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A987" s="2">
         <v>42893</v>
       </c>
@@ -18019,7 +18020,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="988" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="988" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A988" s="2">
         <v>42893</v>
       </c>
@@ -18036,7 +18037,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="989" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="989" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A989" s="2">
         <v>42893</v>
       </c>
@@ -18053,7 +18054,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="990" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="990" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A990" s="2">
         <v>42893</v>
       </c>
@@ -18070,7 +18071,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="991" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="991" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A991" s="2">
         <v>42893</v>
       </c>
@@ -18087,7 +18088,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="992" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="992" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A992" s="2">
         <v>42893</v>
       </c>
@@ -18104,7 +18105,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="993" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="993" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A993" s="2">
         <v>42893</v>
       </c>
@@ -18121,7 +18122,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="994" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="994" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A994" s="2">
         <v>42893</v>
       </c>
@@ -18138,7 +18139,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="995" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="995" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A995" s="2">
         <v>42893</v>
       </c>
@@ -18155,7 +18156,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="996" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="996" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A996" s="2">
         <v>42893</v>
       </c>
@@ -18172,7 +18173,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="997" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="997" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A997" s="2">
         <v>42893</v>
       </c>
@@ -18189,7 +18190,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="998" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="998" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A998" s="2">
         <v>42893</v>
       </c>
@@ -18206,7 +18207,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="999" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="999" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A999" t="s">
         <v>122</v>
       </c>
@@ -18223,7 +18224,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="1000" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1000" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1000" s="2">
         <v>42923</v>
       </c>
@@ -18240,7 +18241,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="1001" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1001" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1001" s="2">
         <v>42923</v>
       </c>
@@ -18257,7 +18258,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="1002" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1002" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1002" s="2">
         <v>42923</v>
       </c>
@@ -18274,7 +18275,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="1003" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1003" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1003" s="2">
         <v>42923</v>
       </c>
@@ -18291,7 +18292,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="1004" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1004" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1004" s="2">
         <v>42923</v>
       </c>
@@ -18308,7 +18309,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="1005" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1005" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1005" s="2">
         <v>42923</v>
       </c>
@@ -18325,7 +18326,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="1006" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1006" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1006" s="2">
         <v>42923</v>
       </c>
@@ -18342,7 +18343,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="1007" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1007" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1007" s="2">
         <v>42923</v>
       </c>
@@ -18359,7 +18360,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="1008" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1008" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1008" s="2">
         <v>42923</v>
       </c>
@@ -18376,7 +18377,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="1009" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1009" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1009" s="2">
         <v>42923</v>
       </c>
@@ -18393,7 +18394,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="1010" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1010" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1010" s="2">
         <v>42923</v>
       </c>
@@ -18410,7 +18411,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="1011" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1011" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1011" t="s">
         <v>123</v>
       </c>
@@ -18427,7 +18428,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="1012" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1012" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1012" s="2">
         <v>42954</v>
       </c>
@@ -18444,7 +18445,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="1013" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1013" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1013" s="2">
         <v>42954</v>
       </c>
@@ -18461,7 +18462,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="1014" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1014" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1014" s="2">
         <v>42954</v>
       </c>
@@ -18478,7 +18479,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="1015" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1015" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1015" s="2">
         <v>42954</v>
       </c>
@@ -18495,7 +18496,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="1016" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1016" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1016" s="2">
         <v>42954</v>
       </c>
@@ -18512,7 +18513,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="1017" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1017" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1017" s="2">
         <v>42954</v>
       </c>
@@ -18529,7 +18530,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="1018" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1018" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1018" s="2">
         <v>42954</v>
       </c>
@@ -18546,7 +18547,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="1019" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1019" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1019" s="2">
         <v>42954</v>
       </c>
@@ -18563,7 +18564,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="1020" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1020" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1020" s="2">
         <v>42954</v>
       </c>
@@ -18580,7 +18581,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="1021" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1021" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1021" s="2">
         <v>42954</v>
       </c>
@@ -18597,7 +18598,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="1022" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1022" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1022" s="2">
         <v>42954</v>
       </c>
@@ -18614,7 +18615,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="1023" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1023" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1023" s="2">
         <v>42954</v>
       </c>
@@ -18631,7 +18632,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="1024" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1024" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1024" s="2">
         <v>42954</v>
       </c>
@@ -18648,7 +18649,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="1025" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1025" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1025" s="2">
         <v>42954</v>
       </c>
@@ -18665,7 +18666,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="1026" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1026" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1026" t="s">
         <v>124</v>
       </c>
@@ -18682,7 +18683,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="1027" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1027" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1027" s="2">
         <v>42985</v>
       </c>
@@ -18699,7 +18700,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="1028" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1028" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1028" s="2">
         <v>42985</v>
       </c>
@@ -18716,7 +18717,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="1029" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1029" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1029" s="2">
         <v>42985</v>
       </c>
@@ -18733,7 +18734,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="1030" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1030" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1030" s="2">
         <v>42985</v>
       </c>
@@ -18750,7 +18751,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="1031" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1031" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1031" s="2">
         <v>42985</v>
       </c>
@@ -18767,7 +18768,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="1032" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1032" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1032" s="2">
         <v>42985</v>
       </c>
@@ -18784,7 +18785,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="1033" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1033" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1033" s="2">
         <v>42985</v>
       </c>
@@ -18801,7 +18802,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="1034" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1034" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1034" s="2">
         <v>42985</v>
       </c>
@@ -18818,7 +18819,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="1035" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1035" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1035" s="2">
         <v>42985</v>
       </c>
@@ -18835,7 +18836,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="1036" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1036" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1036" s="2">
         <v>42985</v>
       </c>
@@ -18852,7 +18853,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="1037" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1037" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1037" s="2">
         <v>42985</v>
       </c>
@@ -18869,7 +18870,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="1038" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1038" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1038" s="2">
         <v>42985</v>
       </c>
@@ -18886,7 +18887,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="1039" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1039" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1039" s="2">
         <v>42985</v>
       </c>
@@ -18903,7 +18904,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="1040" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1040" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1040" s="2">
         <v>42985</v>
       </c>
@@ -18920,7 +18921,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="1041" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1041" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1041" s="2">
         <v>42985</v>
       </c>
@@ -18937,7 +18938,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="1042" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1042" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1042" s="2">
         <v>42985</v>
       </c>
@@ -18954,7 +18955,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="1043" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1043" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1043" t="s">
         <v>125</v>
       </c>
@@ -18971,7 +18972,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="1044" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1044" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1044" s="2">
         <v>43015</v>
       </c>
@@ -18988,7 +18989,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="1045" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1045" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1045" s="2">
         <v>43015</v>
       </c>
@@ -19005,7 +19006,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="1046" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1046" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1046" s="2">
         <v>43015</v>
       </c>
@@ -19022,7 +19023,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="1047" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1047" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1047" s="2">
         <v>43015</v>
       </c>
@@ -19039,7 +19040,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="1048" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1048" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1048" s="2">
         <v>43015</v>
       </c>
@@ -19056,7 +19057,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="1049" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1049" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1049" s="2">
         <v>43015</v>
       </c>
@@ -19073,7 +19074,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="1050" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1050" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1050" s="2">
         <v>43015</v>
       </c>
@@ -19090,7 +19091,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="1051" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1051" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1051" s="2">
         <v>43015</v>
       </c>
@@ -19107,7 +19108,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="1052" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1052" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1052" s="2">
         <v>43015</v>
       </c>
@@ -19124,7 +19125,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="1053" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1053" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1053" s="2">
         <v>43015</v>
       </c>
@@ -19141,7 +19142,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="1054" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1054" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1054" s="2">
         <v>43015</v>
       </c>
@@ -19158,7 +19159,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="1055" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1055" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1055" s="2">
         <v>43015</v>
       </c>
@@ -19175,7 +19176,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="1056" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1056" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1056" s="2">
         <v>43015</v>
       </c>
@@ -19192,7 +19193,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="1057" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1057" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1057" s="2">
         <v>43015</v>
       </c>
@@ -19209,7 +19210,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="1058" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1058" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1058" s="2">
         <v>43015</v>
       </c>
@@ -19226,7 +19227,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="1059" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1059" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1059" s="2">
         <v>43015</v>
       </c>
@@ -19243,7 +19244,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="1060" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1060" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1060" t="s">
         <v>126</v>
       </c>
@@ -19260,7 +19261,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="1061" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1061" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1061" s="2">
         <v>43046</v>
       </c>
@@ -19277,7 +19278,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="1062" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1062" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1062" s="2">
         <v>43046</v>
       </c>
@@ -19294,7 +19295,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="1063" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1063" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1063" s="2">
         <v>43046</v>
       </c>
@@ -19311,7 +19312,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="1064" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1064" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1064" s="2">
         <v>43046</v>
       </c>
@@ -19328,7 +19329,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="1065" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1065" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1065" s="2">
         <v>43046</v>
       </c>
@@ -19345,7 +19346,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="1066" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1066" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1066" s="2">
         <v>43046</v>
       </c>
@@ -19362,7 +19363,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="1067" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1067" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1067" s="2">
         <v>43046</v>
       </c>
@@ -19379,7 +19380,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="1068" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1068" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1068" s="2">
         <v>43046</v>
       </c>
@@ -19396,7 +19397,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="1069" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1069" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1069" s="2">
         <v>43046</v>
       </c>
@@ -19413,7 +19414,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="1070" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1070" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1070" s="2">
         <v>43046</v>
       </c>
@@ -19430,7 +19431,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="1071" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1071" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1071" s="2">
         <v>43046</v>
       </c>
@@ -19447,7 +19448,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="1072" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1072" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1072" s="2">
         <v>43046</v>
       </c>
@@ -19464,7 +19465,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="1073" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1073" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1073" s="2">
         <v>43046</v>
       </c>
@@ -19481,7 +19482,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="1074" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1074" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1074" s="2">
         <v>43046</v>
       </c>
@@ -19498,7 +19499,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="1075" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1075" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1075" s="2">
         <v>43046</v>
       </c>
